--- a/Analytics/свойста.xlsx
+++ b/Analytics/свойста.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Brackeys-Game-Jam\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B379B-D4A4-4A07-8259-E0293E99CB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A0840-7EBE-4CDA-BFE5-1A99B89A7500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{28298931-A808-4930-B925-C5E4854C6B70}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>Хотят</t>
+  </si>
+  <si>
+    <t>Foley</t>
+  </si>
+  <si>
+    <t>Backquit</t>
   </si>
 </sst>
 </file>
@@ -511,13 +517,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -996,7 +1002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1EF0E9F-298E-4A7A-B6BB-7F28D24AE831}" name="Сводная таблица6" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1EF0E9F-298E-4A7A-B6BB-7F28D24AE831}" name="Сводная таблица6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1409,7 +1415,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,18 +1437,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
@@ -1897,7 +1903,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,18 +1926,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H2" s="11" t="s">
@@ -2060,7 +2066,7 @@
       </c>
       <c r="F5">
         <f>COUNTIF(NPCs!B:M,A5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>12*E5</f>
@@ -2105,7 +2111,7 @@
       <c r="A7">
         <v>27900</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E7">
@@ -2200,7 +2206,7 @@
       </c>
       <c r="F10">
         <f>COUNTIF(NPCs!B:M,A10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
@@ -2341,7 +2347,7 @@
       <c r="A15">
         <v>37836</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E15">
@@ -2410,7 +2416,7 @@
         <v>84</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f>COUNTIF(NPCs!B:M,A17)</f>
@@ -2418,7 +2424,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>85</v>
@@ -2509,7 +2515,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,22 +2539,22 @@
       <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -3265,7 +3271,7 @@
   <dimension ref="A3:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46980B5-3E02-4C72-BB50-2AB726881325}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,6 +3546,16 @@
         <v>31352</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>VLOOKUP(B2,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(C2,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
@@ -3551,6 +3567,16 @@
         <v>27900</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>VLOOKUP(B4,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(C4,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
@@ -3565,6 +3591,20 @@
         <v>37276</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>VLOOKUP(B6,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(C6,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(D6,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
@@ -3579,6 +3619,20 @@
         <v>27668</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>VLOOKUP(B8,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(C8,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(D8,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>106</v>
@@ -3593,6 +3647,20 @@
         <v>37360</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>VLOOKUP(B10,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(C10,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(D10,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
@@ -3613,6 +3681,28 @@
         <v>28988</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>VLOOKUP(B12,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(C12,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(D12,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(E12,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(F12,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
@@ -3624,6 +3714,16 @@
         <v>37460</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>VLOOKUP(B14,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(C14,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
@@ -3638,6 +3738,20 @@
         <v>37640</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>VLOOKUP(B16,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(C16,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(D16,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
@@ -3652,6 +3766,20 @@
         <v>30444</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>VLOOKUP(B18,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(C18,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(D18,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
@@ -3661,6 +3789,44 @@
       </c>
       <c r="C20">
         <v>37768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>VLOOKUP(B20,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(C20,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <v>37360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>VLOOKUP(B23,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25">
+        <v>28988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>VLOOKUP(B25,Зелья!$A$5:$E$19,5,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/свойста.xlsx
+++ b/Analytics/свойста.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Brackeys-Game-Jam\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A0840-7EBE-4CDA-BFE5-1A99B89A7500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF17A9-DFC6-4984-AEBF-779971B0E173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{28298931-A808-4930-B925-C5E4854C6B70}"/>
+    <workbookView xWindow="3780" yWindow="2415" windowWidth="18255" windowHeight="12225" activeTab="1" xr2:uid="{28298931-A808-4930-B925-C5E4854C6B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Ингридиенты" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C6A62C-50BC-4F97-A9FC-8D646F4108F1}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAF4F3-E9F9-443E-AD74-484F1377BAF8}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -3522,7 +3522,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
